--- a/documentation/PPL_Gitcon_GruS.xlsx
+++ b/documentation/PPL_Gitcon_GruS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\source\MTAP-MIDI-Guitar-Converter\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Smon\source\MTAP-MIDI-Guitar-Converter\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9821DEF-236A-44FF-AA09-F1581C66AF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A765AD-EB44-499B-BD12-5D0429668872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplan" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>Dauer</t>
   </si>
@@ -225,7 +225,10 @@
     <t>Aufsetzung der Treiber und Software</t>
   </si>
   <si>
-    <t>Bsetellung des Mainboards</t>
+    <t>Bestellung des Mainboards</t>
+  </si>
+  <si>
+    <t>Planung des Prototypen</t>
   </si>
 </sst>
 </file>
@@ -318,7 +321,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -920,21 +923,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1035,12 +1023,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1089,6 +1076,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1430,19 +1418,19 @@
   <dimension ref="A1:AX34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK19" sqref="AK19"/>
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="3.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="3.42578125" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="49" width="3.44140625" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="49" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="25"/>
       <c r="C1" s="2"/>
@@ -1458,50 +1446,50 @@
       <c r="K1" s="31"/>
       <c r="L1" s="31"/>
       <c r="M1" s="32"/>
-      <c r="N1" s="77" t="s">
+      <c r="N1" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="77" t="s">
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78"/>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="78"/>
-      <c r="AL1" s="77" t="s">
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77"/>
+      <c r="AL1" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="78"/>
-      <c r="AO1" s="78"/>
-      <c r="AP1" s="78"/>
-      <c r="AQ1" s="78"/>
-      <c r="AR1" s="78"/>
-      <c r="AS1" s="78"/>
-      <c r="AT1" s="78"/>
-      <c r="AU1" s="78"/>
-      <c r="AV1" s="78"/>
-      <c r="AW1" s="79"/>
+      <c r="AM1" s="77"/>
+      <c r="AN1" s="77"/>
+      <c r="AO1" s="77"/>
+      <c r="AP1" s="77"/>
+      <c r="AQ1" s="77"/>
+      <c r="AR1" s="77"/>
+      <c r="AS1" s="77"/>
+      <c r="AT1" s="77"/>
+      <c r="AU1" s="77"/>
+      <c r="AV1" s="77"/>
+      <c r="AW1" s="78"/>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1517,72 +1505,72 @@
       <c r="I2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="73" t="s">
+      <c r="J2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="75" t="s">
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="75" t="s">
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="75" t="s">
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="75" t="s">
+      <c r="W2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="75"/>
-      <c r="AC2" s="75"/>
-      <c r="AD2" s="75" t="s">
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="74"/>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="AE2" s="75"/>
-      <c r="AF2" s="75"/>
-      <c r="AG2" s="75"/>
-      <c r="AH2" s="75" t="s">
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="74"/>
+      <c r="AG2" s="74"/>
+      <c r="AH2" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="AI2" s="75"/>
-      <c r="AJ2" s="75"/>
-      <c r="AK2" s="75"/>
-      <c r="AL2" s="75" t="s">
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="74"/>
+      <c r="AK2" s="74"/>
+      <c r="AL2" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="AM2" s="75"/>
-      <c r="AN2" s="75"/>
-      <c r="AO2" s="75"/>
-      <c r="AP2" s="75" t="s">
+      <c r="AM2" s="74"/>
+      <c r="AN2" s="74"/>
+      <c r="AO2" s="74"/>
+      <c r="AP2" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="AQ2" s="75"/>
-      <c r="AR2" s="75"/>
-      <c r="AS2" s="75"/>
-      <c r="AT2" s="75" t="s">
+      <c r="AQ2" s="74"/>
+      <c r="AR2" s="74"/>
+      <c r="AS2" s="74"/>
+      <c r="AT2" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="AU2" s="75"/>
-      <c r="AV2" s="75"/>
-      <c r="AW2" s="76"/>
+      <c r="AU2" s="74"/>
+      <c r="AV2" s="74"/>
+      <c r="AW2" s="75"/>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="58" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="17"/>
@@ -1591,8 +1579,8 @@
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
       <c r="H3" s="21"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="70"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="69"/>
       <c r="K3" s="34"/>
       <c r="L3" s="51"/>
       <c r="M3" s="51"/>
@@ -1633,26 +1621,26 @@
       <c r="AV3" s="34"/>
       <c r="AW3" s="35"/>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A4" s="18">
-        <v>4</v>
-      </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="19"/>
       <c r="H4" s="23"/>
-      <c r="I4" s="67">
+      <c r="I4" s="66">
         <v>3</v>
       </c>
       <c r="J4" s="36"/>
       <c r="K4" s="38"/>
       <c r="L4" s="38"/>
-      <c r="M4" s="53"/>
+      <c r="M4" s="52"/>
       <c r="N4" s="38"/>
       <c r="O4" s="38"/>
       <c r="P4" s="38"/>
@@ -1690,28 +1678,28 @@
       <c r="AV4" s="38"/>
       <c r="AW4" s="39"/>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
-        <v>5</v>
-      </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="59"/>
+      <c r="C5" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="19"/>
       <c r="H5" s="23"/>
-      <c r="I5" s="67">
+      <c r="I5" s="66">
         <v>4</v>
       </c>
       <c r="J5" s="36"/>
       <c r="K5" s="38"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
       <c r="R5" s="38"/>
@@ -1747,20 +1735,20 @@
       <c r="AV5" s="38"/>
       <c r="AW5" s="39"/>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
-        <v>6</v>
-      </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="59"/>
+      <c r="C6" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="19"/>
       <c r="H6" s="23"/>
-      <c r="I6" s="67">
+      <c r="I6" s="66">
         <v>2</v>
       </c>
       <c r="J6" s="36"/>
@@ -1768,7 +1756,7 @@
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
       <c r="N6" s="38"/>
-      <c r="O6" s="53"/>
+      <c r="O6" s="52"/>
       <c r="P6" s="38"/>
       <c r="Q6" s="38"/>
       <c r="R6" s="38"/>
@@ -1804,24 +1792,26 @@
       <c r="AV6" s="38"/>
       <c r="AW6" s="39"/>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="63" t="s">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A7" s="18">
+        <v>5</v>
+      </c>
+      <c r="B7" s="59"/>
+      <c r="C7" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="19"/>
       <c r="H7" s="23"/>
-      <c r="I7" s="67"/>
+      <c r="I7" s="66"/>
       <c r="J7" s="36"/>
       <c r="K7" s="38"/>
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
       <c r="N7" s="38"/>
-      <c r="O7" s="64" t="s">
+      <c r="O7" s="63" t="s">
         <v>18</v>
       </c>
       <c r="P7" s="38"/>
@@ -1859,20 +1849,20 @@
       <c r="AV7" s="38"/>
       <c r="AW7" s="39"/>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
-        <v>8</v>
-      </c>
-      <c r="B8" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="19"/>
       <c r="H8" s="23"/>
-      <c r="I8" s="67"/>
+      <c r="I8" s="66"/>
       <c r="J8" s="36"/>
       <c r="K8" s="38"/>
       <c r="L8" s="38"/>
@@ -1914,20 +1904,20 @@
       <c r="AV8" s="38"/>
       <c r="AW8" s="39"/>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
-        <v>11</v>
-      </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="59"/>
+      <c r="C9" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="19"/>
       <c r="H9" s="23"/>
-      <c r="I9" s="67">
+      <c r="I9" s="66">
         <v>20</v>
       </c>
       <c r="J9" s="36"/>
@@ -1936,16 +1926,16 @@
       <c r="M9" s="38"/>
       <c r="N9" s="38"/>
       <c r="O9" s="38"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
       <c r="S9" s="37"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
-      <c r="V9" s="71"/>
-      <c r="W9" s="71"/>
-      <c r="X9" s="71"/>
-      <c r="Y9" s="71"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
       <c r="Z9" s="38"/>
       <c r="AA9" s="38"/>
       <c r="AB9" s="38"/>
@@ -1971,34 +1961,36 @@
       <c r="AV9" s="38"/>
       <c r="AW9" s="39"/>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
-        <v>9</v>
-      </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="59"/>
+      <c r="C10" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
       <c r="G10" s="19"/>
       <c r="H10" s="23"/>
-      <c r="I10" s="67"/>
+      <c r="I10" s="66"/>
       <c r="J10" s="36"/>
       <c r="K10" s="38"/>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
       <c r="N10" s="38"/>
       <c r="O10" s="38"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="53"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="53"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="52"/>
       <c r="Z10" s="38"/>
       <c r="AA10" s="38"/>
       <c r="AB10" s="38"/>
@@ -2024,34 +2016,34 @@
       <c r="AV10" s="38"/>
       <c r="AW10" s="39"/>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
-        <v>10</v>
-      </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="59"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
       <c r="G11" s="19"/>
       <c r="H11" s="23"/>
-      <c r="I11" s="67"/>
+      <c r="I11" s="66"/>
       <c r="J11" s="36"/>
       <c r="K11" s="38"/>
       <c r="L11" s="38"/>
       <c r="M11" s="38"/>
       <c r="N11" s="38"/>
       <c r="O11" s="38"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="53"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="52"/>
       <c r="S11" s="37"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="53"/>
-      <c r="Y11" s="53"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="52"/>
       <c r="Z11" s="38"/>
       <c r="AA11" s="38"/>
       <c r="AB11" s="38"/>
@@ -2077,18 +2069,20 @@
       <c r="AV11" s="38"/>
       <c r="AW11" s="39"/>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="63" t="s">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A12" s="18">
+        <v>10</v>
+      </c>
+      <c r="B12" s="59"/>
+      <c r="C12" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="19"/>
       <c r="H12" s="23"/>
-      <c r="I12" s="67">
+      <c r="I12" s="66">
         <v>30</v>
       </c>
       <c r="J12" s="36"/>
@@ -2097,16 +2091,16 @@
       <c r="M12" s="38"/>
       <c r="N12" s="38"/>
       <c r="O12" s="38"/>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="53"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="52"/>
       <c r="S12" s="37"/>
-      <c r="T12" s="53"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="53"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="52"/>
       <c r="Z12" s="38"/>
       <c r="AA12" s="38"/>
       <c r="AB12" s="38"/>
@@ -2132,20 +2126,20 @@
       <c r="AV12" s="38"/>
       <c r="AW12" s="39"/>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
-        <v>12</v>
-      </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="59"/>
+      <c r="C13" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
       <c r="G13" s="19"/>
       <c r="H13" s="23"/>
-      <c r="I13" s="67"/>
+      <c r="I13" s="66"/>
       <c r="J13" s="36"/>
       <c r="K13" s="38"/>
       <c r="L13" s="38"/>
@@ -2153,12 +2147,12 @@
       <c r="N13" s="38"/>
       <c r="O13" s="38"/>
       <c r="P13" s="38"/>
-      <c r="Q13" s="64" t="s">
+      <c r="Q13" s="63" t="s">
         <v>46</v>
       </c>
       <c r="R13" s="38"/>
       <c r="S13" s="38"/>
-      <c r="T13" s="63"/>
+      <c r="T13" s="62"/>
       <c r="U13" s="38"/>
       <c r="V13" s="38"/>
       <c r="W13" s="38"/>
@@ -2189,20 +2183,20 @@
       <c r="AV13" s="38"/>
       <c r="AW13" s="39"/>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
-        <v>13</v>
-      </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="59"/>
+      <c r="C14" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
       <c r="G14" s="19"/>
       <c r="H14" s="23"/>
-      <c r="I14" s="67">
+      <c r="I14" s="66">
         <v>25</v>
       </c>
       <c r="J14" s="36"/>
@@ -2246,20 +2240,20 @@
       <c r="AV14" s="38"/>
       <c r="AW14" s="39"/>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
-        <v>14</v>
-      </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="59"/>
+      <c r="C15" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
       <c r="G15" s="19"/>
       <c r="H15" s="23"/>
-      <c r="I15" s="67"/>
+      <c r="I15" s="66"/>
       <c r="J15" s="36"/>
       <c r="K15" s="38"/>
       <c r="L15" s="38"/>
@@ -2274,7 +2268,7 @@
       <c r="U15" s="38"/>
       <c r="V15" s="38"/>
       <c r="W15" s="38"/>
-      <c r="X15" s="63" t="s">
+      <c r="X15" s="62" t="s">
         <v>23</v>
       </c>
       <c r="Y15" s="38"/>
@@ -2303,20 +2297,20 @@
       <c r="AV15" s="38"/>
       <c r="AW15" s="39"/>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
-        <v>15</v>
-      </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="59"/>
+      <c r="C16" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
       <c r="G16" s="19"/>
       <c r="H16" s="23"/>
-      <c r="I16" s="67">
+      <c r="I16" s="66">
         <v>15</v>
       </c>
       <c r="J16" s="36"/>
@@ -2360,20 +2354,20 @@
       <c r="AV16" s="38"/>
       <c r="AW16" s="39"/>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
-        <v>16</v>
-      </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="59"/>
+      <c r="C17" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
       <c r="G17" s="19"/>
       <c r="H17" s="23"/>
-      <c r="I17" s="67"/>
+      <c r="I17" s="66"/>
       <c r="J17" s="36"/>
       <c r="K17" s="38"/>
       <c r="L17" s="38"/>
@@ -2392,7 +2386,7 @@
       <c r="Y17" s="38"/>
       <c r="Z17" s="38"/>
       <c r="AA17" s="38"/>
-      <c r="AB17" s="63" t="s">
+      <c r="AB17" s="62" t="s">
         <v>25</v>
       </c>
       <c r="AC17" s="38"/>
@@ -2417,20 +2411,20 @@
       <c r="AV17" s="38"/>
       <c r="AW17" s="39"/>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
       <c r="G18" s="19"/>
       <c r="H18" s="23"/>
-      <c r="I18" s="67">
+      <c r="I18" s="66">
         <v>10</v>
       </c>
       <c r="J18" s="36"/>
@@ -2474,20 +2468,20 @@
       <c r="AV18" s="38"/>
       <c r="AW18" s="39"/>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A19" s="18">
-        <v>18</v>
-      </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="61"/>
+      <c r="C19" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
       <c r="G19" s="19"/>
       <c r="H19" s="23"/>
-      <c r="I19" s="67"/>
+      <c r="I19" s="66"/>
       <c r="J19" s="36"/>
       <c r="K19" s="38"/>
       <c r="L19" s="38"/>
@@ -2512,7 +2506,7 @@
       <c r="AE19" s="38"/>
       <c r="AF19" s="38"/>
       <c r="AG19" s="38"/>
-      <c r="AH19" s="63" t="s">
+      <c r="AH19" s="62" t="s">
         <v>27</v>
       </c>
       <c r="AI19" s="38"/>
@@ -2531,20 +2525,20 @@
       <c r="AV19" s="38"/>
       <c r="AW19" s="39"/>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
-        <v>19</v>
-      </c>
-      <c r="B20" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
       <c r="G20" s="19"/>
       <c r="H20" s="23"/>
-      <c r="I20" s="67"/>
+      <c r="I20" s="66"/>
       <c r="J20" s="36"/>
       <c r="K20" s="38"/>
       <c r="L20" s="38"/>
@@ -2586,20 +2580,20 @@
       <c r="AV20" s="38"/>
       <c r="AW20" s="39"/>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
-        <v>20</v>
-      </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="59"/>
+      <c r="C21" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
       <c r="G21" s="19"/>
       <c r="H21" s="23"/>
-      <c r="I21" s="67">
+      <c r="I21" s="66">
         <v>30</v>
       </c>
       <c r="J21" s="36"/>
@@ -2643,20 +2637,20 @@
       <c r="AV21" s="38"/>
       <c r="AW21" s="39"/>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
-        <v>21</v>
-      </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="61"/>
+      <c r="C22" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
       <c r="G22" s="19"/>
       <c r="H22" s="23"/>
-      <c r="I22" s="67"/>
+      <c r="I22" s="66"/>
       <c r="J22" s="36"/>
       <c r="K22" s="38"/>
       <c r="L22" s="38"/>
@@ -2686,10 +2680,10 @@
       <c r="AJ22" s="38"/>
       <c r="AK22" s="38"/>
       <c r="AL22" s="38"/>
-      <c r="AM22" s="72"/>
-      <c r="AN22" s="71"/>
-      <c r="AO22" s="71"/>
-      <c r="AP22" s="71"/>
+      <c r="AM22" s="71"/>
+      <c r="AN22" s="70"/>
+      <c r="AO22" s="70"/>
+      <c r="AP22" s="70"/>
       <c r="AQ22" s="38"/>
       <c r="AR22" s="38"/>
       <c r="AS22" s="38"/>
@@ -2698,22 +2692,22 @@
       <c r="AV22" s="38"/>
       <c r="AW22" s="39"/>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
-        <v>22</v>
-      </c>
-      <c r="B23" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
       <c r="G23" s="19"/>
       <c r="H23" s="23"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
       <c r="L23" s="49"/>
       <c r="M23" s="49"/>
       <c r="N23" s="49"/>
@@ -2741,10 +2735,10 @@
       <c r="AJ23" s="49"/>
       <c r="AK23" s="49"/>
       <c r="AL23" s="49"/>
-      <c r="AM23" s="71"/>
-      <c r="AN23" s="71"/>
-      <c r="AO23" s="71"/>
-      <c r="AP23" s="71"/>
+      <c r="AM23" s="70"/>
+      <c r="AN23" s="70"/>
+      <c r="AO23" s="70"/>
+      <c r="AP23" s="70"/>
       <c r="AQ23" s="38"/>
       <c r="AR23" s="38"/>
       <c r="AS23" s="38"/>
@@ -2753,24 +2747,24 @@
       <c r="AV23" s="38"/>
       <c r="AW23" s="39"/>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A24" s="18">
-        <v>23</v>
-      </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="59"/>
+      <c r="C24" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
       <c r="G24" s="19"/>
       <c r="H24" s="23"/>
-      <c r="I24" s="67">
+      <c r="I24" s="66">
         <v>25</v>
       </c>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
       <c r="L24" s="37"/>
       <c r="M24" s="37"/>
       <c r="N24" s="37"/>
@@ -2798,10 +2792,10 @@
       <c r="AJ24" s="37"/>
       <c r="AK24" s="37"/>
       <c r="AL24" s="37"/>
-      <c r="AM24" s="71"/>
-      <c r="AN24" s="71"/>
-      <c r="AO24" s="71"/>
-      <c r="AP24" s="71"/>
+      <c r="AM24" s="70"/>
+      <c r="AN24" s="70"/>
+      <c r="AO24" s="70"/>
+      <c r="AP24" s="70"/>
       <c r="AQ24" s="38"/>
       <c r="AR24" s="38"/>
       <c r="AS24" s="38"/>
@@ -2810,11 +2804,11 @@
       <c r="AV24" s="38"/>
       <c r="AW24" s="39"/>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A25" s="18">
-        <v>24</v>
-      </c>
-      <c r="B25" s="60"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="59"/>
       <c r="C25" s="45" t="s">
         <v>32</v>
       </c>
@@ -2823,7 +2817,7 @@
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
       <c r="H25" s="23"/>
-      <c r="I25" s="67">
+      <c r="I25" s="66">
         <v>30</v>
       </c>
       <c r="J25" s="36"/>
@@ -2855,10 +2849,10 @@
       <c r="AJ25" s="38"/>
       <c r="AK25" s="37"/>
       <c r="AL25" s="37"/>
-      <c r="AM25" s="71"/>
-      <c r="AN25" s="71"/>
-      <c r="AO25" s="71"/>
-      <c r="AP25" s="71"/>
+      <c r="AM25" s="70"/>
+      <c r="AN25" s="70"/>
+      <c r="AO25" s="70"/>
+      <c r="AP25" s="70"/>
       <c r="AQ25" s="38"/>
       <c r="AR25" s="38"/>
       <c r="AS25" s="38"/>
@@ -2867,9 +2861,9 @@
       <c r="AV25" s="38"/>
       <c r="AW25" s="39"/>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A26" s="18">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="22" t="s">
         <v>33</v>
@@ -2880,7 +2874,7 @@
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
       <c r="H26" s="23"/>
-      <c r="I26" s="67"/>
+      <c r="I26" s="66"/>
       <c r="J26" s="36"/>
       <c r="K26" s="38"/>
       <c r="L26" s="38"/>
@@ -2910,13 +2904,13 @@
       <c r="AJ26" s="38"/>
       <c r="AK26" s="38"/>
       <c r="AL26" s="38"/>
-      <c r="AM26" s="64" t="s">
+      <c r="AM26" s="63" t="s">
         <v>51</v>
       </c>
       <c r="AN26" s="38"/>
       <c r="AO26" s="38"/>
       <c r="AP26" s="38"/>
-      <c r="AQ26" s="64"/>
+      <c r="AQ26" s="63"/>
       <c r="AR26" s="38"/>
       <c r="AS26" s="38"/>
       <c r="AT26" s="38"/>
@@ -2924,9 +2918,9 @@
       <c r="AV26" s="38"/>
       <c r="AW26" s="39"/>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A27" s="52">
-        <v>26</v>
+    <row r="27" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A27" s="18">
+        <v>25</v>
       </c>
       <c r="B27" s="46" t="s">
         <v>34</v>
@@ -2937,7 +2931,7 @@
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="24"/>
-      <c r="I27" s="68"/>
+      <c r="I27" s="67"/>
       <c r="J27" s="40"/>
       <c r="K27" s="41"/>
       <c r="L27" s="41"/>
@@ -2972,7 +2966,7 @@
       <c r="AO27" s="41"/>
       <c r="AP27" s="41"/>
       <c r="AQ27" s="41"/>
-      <c r="AR27" s="65" t="s">
+      <c r="AR27" s="64" t="s">
         <v>35</v>
       </c>
       <c r="AS27" s="41"/>
@@ -2981,22 +2975,22 @@
       <c r="AV27" s="41"/>
       <c r="AW27" s="42"/>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="H28" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="I28" s="69">
+      <c r="I28" s="68">
         <f>SUM(I3:I27)</f>
         <v>194</v>
       </c>
       <c r="AW28" s="5"/>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="AW29" s="5"/>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -3047,17 +3041,17 @@
       <c r="AV30" s="12"/>
       <c r="AW30" s="13"/>
     </row>
-    <row r="31" spans="1:49" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:49" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="56" t="s">
         <v>37</v>
       </c>
       <c r="K31" s="15"/>
       <c r="AW31" s="5"/>
     </row>
-    <row r="32" spans="1:49" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:49" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="57" t="s">
         <v>38</v>
       </c>
       <c r="K32" s="15"/>
@@ -3083,16 +3077,16 @@
       <c r="AN32" s="47"/>
       <c r="AW32" s="5"/>
     </row>
-    <row r="33" spans="1:50" s="54" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:50" s="53" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="56" t="s">
+      <c r="B33" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="L33" s="55"/>
+      <c r="L33" s="54"/>
       <c r="AW33" s="5"/>
-      <c r="AX33" s="55"/>
+      <c r="AX33" s="54"/>
     </row>
-    <row r="34" spans="1:50" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:50" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -3165,9 +3159,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3303,26 +3300,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81E45984-FD63-4A1D-8AA0-E48F278C1B4D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ADAFA77-C44E-4145-B33E-4C0DA35AE6B7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="dc157ffa-89df-417c-a5af-b14496f38a84"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3346,9 +3332,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ADAFA77-C44E-4145-B33E-4C0DA35AE6B7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81E45984-FD63-4A1D-8AA0-E48F278C1B4D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="dc157ffa-89df-417c-a5af-b14496f38a84"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documentation/PPL_Gitcon_GruS.xlsx
+++ b/documentation/PPL_Gitcon_GruS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Smon\source\MTAP-MIDI-Guitar-Converter\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A765AD-EB44-499B-BD12-5D0429668872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD911F76-495E-4D72-87AA-C6604E43F334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>Dauer</t>
   </si>
@@ -225,10 +225,13 @@
     <t>Aufsetzung der Treiber und Software</t>
   </si>
   <si>
-    <t>Bestellung des Mainboards</t>
-  </si>
-  <si>
     <t>Planung des Prototypen</t>
+  </si>
+  <si>
+    <t>PCB Spezifikationen und Design</t>
+  </si>
+  <si>
+    <t>Review und Bestellung des Mainboards</t>
   </si>
 </sst>
 </file>
@@ -1055,6 +1058,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1076,7 +1080,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1418,7 +1421,7 @@
   <dimension ref="A1:AX34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1446,48 +1449,48 @@
       <c r="K1" s="31"/>
       <c r="L1" s="31"/>
       <c r="M1" s="32"/>
-      <c r="N1" s="76" t="s">
+      <c r="N1" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="76" t="s">
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="77"/>
-      <c r="AF1" s="77"/>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="77"/>
-      <c r="AI1" s="77"/>
-      <c r="AJ1" s="77"/>
-      <c r="AK1" s="77"/>
-      <c r="AL1" s="76" t="s">
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="78"/>
+      <c r="AF1" s="78"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="78"/>
+      <c r="AJ1" s="78"/>
+      <c r="AK1" s="78"/>
+      <c r="AL1" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="AM1" s="77"/>
-      <c r="AN1" s="77"/>
-      <c r="AO1" s="77"/>
-      <c r="AP1" s="77"/>
-      <c r="AQ1" s="77"/>
-      <c r="AR1" s="77"/>
-      <c r="AS1" s="77"/>
-      <c r="AT1" s="77"/>
-      <c r="AU1" s="77"/>
-      <c r="AV1" s="77"/>
-      <c r="AW1" s="78"/>
+      <c r="AM1" s="78"/>
+      <c r="AN1" s="78"/>
+      <c r="AO1" s="78"/>
+      <c r="AP1" s="78"/>
+      <c r="AQ1" s="78"/>
+      <c r="AR1" s="78"/>
+      <c r="AS1" s="78"/>
+      <c r="AT1" s="78"/>
+      <c r="AU1" s="78"/>
+      <c r="AV1" s="78"/>
+      <c r="AW1" s="79"/>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -1505,66 +1508,66 @@
       <c r="I2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="72" t="s">
+      <c r="J2" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="74" t="s">
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="74" t="s">
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="74" t="s">
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="74"/>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="74"/>
-      <c r="Z2" s="74" t="s">
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="74"/>
-      <c r="AB2" s="74"/>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="74" t="s">
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="AE2" s="74"/>
-      <c r="AF2" s="74"/>
-      <c r="AG2" s="74"/>
-      <c r="AH2" s="74" t="s">
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="AI2" s="74"/>
-      <c r="AJ2" s="74"/>
-      <c r="AK2" s="74"/>
-      <c r="AL2" s="74" t="s">
+      <c r="AI2" s="75"/>
+      <c r="AJ2" s="75"/>
+      <c r="AK2" s="75"/>
+      <c r="AL2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="AM2" s="74"/>
-      <c r="AN2" s="74"/>
-      <c r="AO2" s="74"/>
-      <c r="AP2" s="74" t="s">
+      <c r="AM2" s="75"/>
+      <c r="AN2" s="75"/>
+      <c r="AO2" s="75"/>
+      <c r="AP2" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="AQ2" s="74"/>
-      <c r="AR2" s="74"/>
-      <c r="AS2" s="74"/>
-      <c r="AT2" s="74" t="s">
+      <c r="AQ2" s="75"/>
+      <c r="AR2" s="75"/>
+      <c r="AS2" s="75"/>
+      <c r="AT2" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="AU2" s="74"/>
-      <c r="AV2" s="74"/>
-      <c r="AW2" s="75"/>
+      <c r="AU2" s="75"/>
+      <c r="AV2" s="75"/>
+      <c r="AW2" s="76"/>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
@@ -1909,8 +1912,8 @@
         <v>7</v>
       </c>
       <c r="B9" s="59"/>
-      <c r="C9" s="79" t="s">
-        <v>54</v>
+      <c r="C9" s="72" t="s">
+        <v>53</v>
       </c>
       <c r="D9" s="62"/>
       <c r="E9" s="62"/>
@@ -1974,7 +1977,9 @@
       <c r="F10" s="62"/>
       <c r="G10" s="19"/>
       <c r="H10" s="23"/>
-      <c r="I10" s="66"/>
+      <c r="I10" s="66">
+        <v>10</v>
+      </c>
       <c r="J10" s="36"/>
       <c r="K10" s="38"/>
       <c r="L10" s="38"/>
@@ -2021,13 +2026,17 @@
         <v>9</v>
       </c>
       <c r="B11" s="59"/>
-      <c r="C11" s="62"/>
+      <c r="C11" s="62" t="s">
+        <v>54</v>
+      </c>
       <c r="D11" s="62"/>
       <c r="E11" s="62"/>
       <c r="F11" s="62"/>
       <c r="G11" s="19"/>
       <c r="H11" s="23"/>
-      <c r="I11" s="66"/>
+      <c r="I11" s="66">
+        <v>30</v>
+      </c>
       <c r="J11" s="36"/>
       <c r="K11" s="38"/>
       <c r="L11" s="38"/>
@@ -2083,7 +2092,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="23"/>
       <c r="I12" s="66">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J12" s="36"/>
       <c r="K12" s="38"/>
@@ -2311,7 +2320,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="23"/>
       <c r="I16" s="66">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J16" s="36"/>
       <c r="K16" s="38"/>
@@ -2417,7 +2426,7 @@
       </c>
       <c r="B18" s="59"/>
       <c r="C18" s="62" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="62"/>
       <c r="E18" s="62"/>
@@ -2828,25 +2837,25 @@
       <c r="O25" s="38"/>
       <c r="P25" s="38"/>
       <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="38"/>
-      <c r="X25" s="38"/>
-      <c r="Y25" s="38"/>
-      <c r="Z25" s="38"/>
-      <c r="AA25" s="38"/>
-      <c r="AB25" s="38"/>
-      <c r="AC25" s="38"/>
-      <c r="AD25" s="38"/>
-      <c r="AE25" s="38"/>
-      <c r="AF25" s="38"/>
-      <c r="AG25" s="38"/>
-      <c r="AH25" s="38"/>
-      <c r="AI25" s="38"/>
-      <c r="AJ25" s="38"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="52"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="52"/>
+      <c r="Y25" s="52"/>
+      <c r="Z25" s="52"/>
+      <c r="AA25" s="52"/>
+      <c r="AB25" s="52"/>
+      <c r="AC25" s="52"/>
+      <c r="AD25" s="52"/>
+      <c r="AE25" s="52"/>
+      <c r="AF25" s="52"/>
+      <c r="AG25" s="52"/>
+      <c r="AH25" s="52"/>
+      <c r="AI25" s="52"/>
+      <c r="AJ25" s="52"/>
       <c r="AK25" s="37"/>
       <c r="AL25" s="37"/>
       <c r="AM25" s="70"/>
@@ -2982,7 +2991,7 @@
       </c>
       <c r="I28" s="68">
         <f>SUM(I3:I27)</f>
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="AW28" s="5"/>
     </row>
@@ -3159,12 +3168,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3300,15 +3306,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ADAFA77-C44E-4145-B33E-4C0DA35AE6B7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81E45984-FD63-4A1D-8AA0-E48F278C1B4D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="dc157ffa-89df-417c-a5af-b14496f38a84"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3332,17 +3349,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81E45984-FD63-4A1D-8AA0-E48F278C1B4D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ADAFA77-C44E-4145-B33E-4C0DA35AE6B7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="dc157ffa-89df-417c-a5af-b14496f38a84"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>